--- a/biology/Zoologie/Aphonopelma/Aphonopelma.xlsx
+++ b/biology/Zoologie/Aphonopelma/Aphonopelma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aphonopelma est un genre d'araignées mygalomorphes de la famille des Theraphosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aphonopelma est un genre d'araignées mygalomorphes de la famille des Theraphosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent aux États-Unis, au Mexique, au Honduras, au Salvador, au Nicaragua, au Costa Rica et au Panama[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent aux États-Unis, au Mexique, au Honduras, au Salvador, au Nicaragua, au Costa Rica et au Panama.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elles sont toutes de grande taille et sont urticantes.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24, 31/01/2023)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24, 31/01/2023) :
 Aphonopelma anax (Chamberlin, 1940)
 Aphonopelma armada (Chamberlin, 1940)
 Aphonopelma atomicum Hamilton, 2016
@@ -657,13 +675,15 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Pocock en 1901 dans les Aviculariidae.
-Aphonopelma[2], Dugesiella[2], Delopelma[3], Chaunopelma[4] et Gosipelma[4] ont été placé en synonymie avec Rhechostica[5] par Raven en 1985[6]. En 1991, Aphonopelma prend le précédence sur Rhechostica[7]
-Apachepelma[8] a été placé en synonymie par Prentice en 1997[9].
-Dugesiella est relevé de synonymie par Gabriel en 2022[10].
-Il a été révisé par Hamilton, Hendrixson et Bond en 2016 pour les espèces américaines[11], ils décrivent 14 espèces nouvelles et en placent 33 en synonymie.
+Aphonopelma, Dugesiella, Delopelma, Chaunopelma et Gosipelma ont été placé en synonymie avec Rhechostica par Raven en 1985. En 1991, Aphonopelma prend le précédence sur Rhechostica
+Apachepelma a été placé en synonymie par Prentice en 1997.
+Dugesiella est relevé de synonymie par Gabriel en 2022.
+Il a été révisé par Hamilton, Hendrixson et Bond en 2016 pour les espèces américaines, ils décrivent 14 espèces nouvelles et en placent 33 en synonymie.
 </t>
         </is>
       </c>
@@ -692,7 +712,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Pocock, 1901 : « Some new and old genera of South American Avicularidae. » Annals and Magazine of Natural History, sér. 7, vol. 8, p. 540-555 (texte intégral).</t>
         </is>
